--- a/Project3927_M. R. Smith(2024).xlsx
+++ b/Project3927_M. R. Smith(2024).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB93638E-353D-3545-8DE7-AD7B25C4D33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D66B178-BA1F-3B48-89C3-F666A3EA10C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1480" windowWidth="27240" windowHeight="15040" xr2:uid="{C7FF412E-8496-CA4A-B1E0-2453682C52E1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{C7FF412E-8496-CA4A-B1E0-2453682C52E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Project3927" sheetId="2" r:id="rId1"/>
@@ -589,16 +589,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,16 +619,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5755</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56554</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:rowOff>28863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>579159</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>826264</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -652,8 +651,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10568930" y="438086"/>
-          <a:ext cx="10491499" cy="6496517"/>
+          <a:off x="10597554" y="308263"/>
+          <a:ext cx="10840045" cy="6678023"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -984,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864B5B66-C8AB-2741-B63B-AE7C9A7DEF45}">
   <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -999,10 +998,10 @@
       <c r="A1" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1604,7 +1603,7 @@
       <c r="A56" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1946,9 +1945,9 @@
         <v>72</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2430,10 +2429,10 @@
         <v>28</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
